--- a/Doc/Git手順.xlsx
+++ b/Doc/Git手順.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Git" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="接続情報" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>1.Gitをインストールする。</t>
     <phoneticPr fontId="3"/>
@@ -252,6 +252,24 @@
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>■リポジトリ</t>
+  </si>
+  <si>
+    <t>https://github.com/IKEDAIKEDA/IT2016</t>
+  </si>
+  <si>
+    <t>■ID</t>
+  </si>
+  <si>
+    <t>IKEDAIKEDA</t>
+  </si>
+  <si>
+    <t>■PW</t>
+  </si>
+  <si>
+    <t>Ikeda5272</t>
   </si>
 </sst>
 </file>
@@ -1660,12 +1678,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
